--- a/graph.xlsx
+++ b/graph.xlsx
@@ -20,66 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">Обработать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBDP</t>
+    <t xml:space="preserve">Построить графики по:</t>
   </si>
 </sst>
 </file>
@@ -183,10 +126,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B2:B20"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.27"/>
@@ -197,124 +140,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>

--- a/graph.xlsx
+++ b/graph.xlsx
@@ -126,10 +126,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.27"/>
